--- a/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CF5E63-C3E5-49AE-B628-942510BA816F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196AD61-4C0A-4EF7-8C66-92FB471054E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="28" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | DECEMBER" sheetId="902" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="85">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -311,6 +311,42 @@
   </si>
   <si>
     <t>DATE ___________12/08/2025___________</t>
+  </si>
+  <si>
+    <t>5/1B</t>
+  </si>
+  <si>
+    <t>15/5B</t>
+  </si>
+  <si>
+    <t>20/6B</t>
+  </si>
+  <si>
+    <t>9/3B</t>
+  </si>
+  <si>
+    <t>3/1B</t>
+  </si>
+  <si>
+    <t>12/4B</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>2/12B</t>
+  </si>
+  <si>
+    <t>1/12B</t>
+  </si>
+  <si>
+    <t>4/1B</t>
+  </si>
+  <si>
+    <t>7/12B</t>
+  </si>
+  <si>
+    <t>11/13B</t>
   </si>
 </sst>
 </file>
@@ -32435,7 +32471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8327888C-2493-4ADD-8B4E-F904D8DF05AC}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -33916,8 +33952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD312018-AEFA-43EE-A4EC-98D8F1F0E5A4}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -34271,11 +34307,19 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -34287,9 +34331,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -34438,11 +34486,19 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -34454,20 +34510,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>1</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="61">
+        <v>3</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>76</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -34479,9 +34547,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>1</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -34859,21 +34931,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>20</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>4</v>
+      </c>
+      <c r="M24" s="15">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15">
+        <v>275</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>11</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -35024,21 +35112,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
       <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="24">
+        <v>4</v>
+      </c>
+      <c r="N31" s="24">
+        <v>13</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>0</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -35049,21 +35153,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="E32" s="28">
+        <v>0</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>20</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="29">
+        <v>16</v>
+      </c>
+      <c r="N32" s="29">
+        <v>262</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>11</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -35189,21 +35309,51 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
+      <c r="D36" s="44">
+        <v>2</v>
+      </c>
+      <c r="E36" s="45">
+        <v>1</v>
+      </c>
+      <c r="F36" s="45">
+        <v>258</v>
+      </c>
+      <c r="G36" s="45">
+        <v>43</v>
+      </c>
+      <c r="H36" s="45">
+        <v>8</v>
+      </c>
+      <c r="I36" s="45">
+        <v>13</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>4</v>
+      </c>
+      <c r="L36" s="45">
+        <v>5</v>
+      </c>
+      <c r="M36" s="45">
+        <v>2</v>
+      </c>
+      <c r="N36" s="45">
+        <v>9</v>
+      </c>
+      <c r="O36" s="45">
+        <v>3</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>12</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -35329,21 +35479,51 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
+      <c r="D42" s="44">
+        <v>2</v>
+      </c>
+      <c r="E42" s="45">
+        <v>1</v>
+      </c>
+      <c r="F42" s="45">
+        <v>258</v>
+      </c>
+      <c r="G42" s="45">
+        <v>43</v>
+      </c>
+      <c r="H42" s="45">
+        <v>8</v>
+      </c>
+      <c r="I42" s="45">
+        <v>13</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>4</v>
+      </c>
+      <c r="L42" s="45">
+        <v>5</v>
+      </c>
+      <c r="M42" s="45">
+        <v>2</v>
+      </c>
+      <c r="N42" s="45">
+        <v>9</v>
+      </c>
+      <c r="O42" s="45">
+        <v>3</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>12</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -35752,11 +35932,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -35768,9 +35952,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -35919,11 +36107,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -35935,20 +36127,28 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -35960,9 +36160,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -36340,21 +36544,35 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>46</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>15</v>
+      </c>
+      <c r="N24" s="15">
+        <v>224</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -36505,21 +36723,35 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>7</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>13</v>
+      </c>
+      <c r="N31" s="24">
+        <v>56</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>15</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -36530,21 +36762,35 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>39</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>2</v>
+      </c>
+      <c r="N32" s="29">
+        <v>128</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -36673,18 +36919,36 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="F36" s="45">
+        <v>211</v>
+      </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="H36" s="45">
+        <v>1</v>
+      </c>
+      <c r="I36" s="45">
+        <v>2</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>8</v>
+      </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>1</v>
+      </c>
+      <c r="O36" s="45">
+        <v>3</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>22</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -36813,18 +37077,36 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
+      <c r="F42" s="45">
+        <v>211</v>
+      </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="H42" s="45">
+        <v>1</v>
+      </c>
+      <c r="I42" s="45">
+        <v>2</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>8</v>
+      </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>1</v>
+      </c>
+      <c r="O42" s="45">
+        <v>3</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>22</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -36879,7 +37161,7 @@
   <dimension ref="B1:AA43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C36" sqref="C36:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -37233,11 +37515,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -37247,11 +37533,17 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
+      <c r="R8" s="15">
+        <v>9</v>
+      </c>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -37400,11 +37692,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -37414,22 +37710,32 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="R15" s="24">
+        <v>0</v>
+      </c>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -37439,11 +37745,17 @@
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="R16" s="29">
+        <v>9</v>
+      </c>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -37821,21 +38133,35 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>84</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>12</v>
+      </c>
+      <c r="N24" s="15">
+        <v>445</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -37986,21 +38312,35 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>66</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>1</v>
+      </c>
+      <c r="M31" s="24">
+        <v>1</v>
+      </c>
+      <c r="N31" s="24">
+        <v>234</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>10</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -38011,21 +38351,35 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>2</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>18</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>1</v>
+      </c>
+      <c r="M32" s="29">
+        <v>11</v>
+      </c>
+      <c r="N32" s="29">
+        <v>211</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -38151,21 +38505,43 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>2</v>
+      </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="E36" s="45">
+        <v>3</v>
+      </c>
+      <c r="F36" s="45">
+        <v>262</v>
+      </c>
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="I36" s="45">
+        <v>10</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="K36" s="45">
+        <v>9</v>
+      </c>
+      <c r="L36" s="45">
+        <v>2</v>
+      </c>
+      <c r="M36" s="45">
+        <v>1</v>
+      </c>
+      <c r="N36" s="45">
+        <v>11</v>
+      </c>
+      <c r="O36" s="45">
+        <v>4</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>6</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -38291,21 +38667,43 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>2</v>
+      </c>
       <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
+      <c r="E42" s="45">
+        <v>3</v>
+      </c>
+      <c r="F42" s="45">
+        <v>262</v>
+      </c>
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="I42" s="45">
+        <v>10</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="K42" s="45">
+        <v>9</v>
+      </c>
+      <c r="L42" s="45">
+        <v>2</v>
+      </c>
+      <c r="M42" s="45">
+        <v>1</v>
+      </c>
+      <c r="N42" s="45">
+        <v>11</v>
+      </c>
+      <c r="O42" s="45">
+        <v>4</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>6</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>

--- a/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196AD61-4C0A-4EF7-8C66-92FB471054E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F439BE-36CD-4A2B-9D07-51B2D9545886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | DECEMBER" sheetId="902" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="106">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -347,6 +347,69 @@
   </si>
   <si>
     <t>11/13B</t>
+  </si>
+  <si>
+    <t>4/22B</t>
+  </si>
+  <si>
+    <t>5/3B</t>
+  </si>
+  <si>
+    <t>10/1B</t>
+  </si>
+  <si>
+    <t>8/13B</t>
+  </si>
+  <si>
+    <t>3/23B</t>
+  </si>
+  <si>
+    <t>12/12B</t>
+  </si>
+  <si>
+    <t>20/2B</t>
+  </si>
+  <si>
+    <t>54/2B</t>
+  </si>
+  <si>
+    <t>5/19B</t>
+  </si>
+  <si>
+    <t>21/10B</t>
+  </si>
+  <si>
+    <t>27/5B</t>
+  </si>
+  <si>
+    <t>4/23b</t>
+  </si>
+  <si>
+    <t>5/4b</t>
+  </si>
+  <si>
+    <t>10/3b</t>
+  </si>
+  <si>
+    <t>2/12b</t>
+  </si>
+  <si>
+    <t>14/11b</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>14/23b</t>
+  </si>
+  <si>
+    <t>8/16b</t>
+  </si>
+  <si>
+    <t>17/18b</t>
+  </si>
+  <si>
+    <t>26/10b</t>
   </si>
 </sst>
 </file>
@@ -4691,12 +4754,22 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -4708,9 +4781,15 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
+      <c r="U8" s="62">
+        <v>1</v>
+      </c>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -4858,12 +4937,22 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -4875,20 +4964,36 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
+      <c r="U15" s="64">
+        <v>1</v>
+      </c>
+      <c r="V15" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28">
+        <v>2</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>96</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -4900,9 +5005,15 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
+      <c r="U16" s="65">
+        <v>0</v>
+      </c>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -5280,21 +5391,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>38</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="15">
+        <v>10</v>
+      </c>
+      <c r="N24" s="15">
+        <v>202</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>9</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -5445,21 +5572,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>28</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="L31" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="24">
+        <v>5</v>
+      </c>
+      <c r="N31" s="24">
+        <v>52</v>
+      </c>
+      <c r="O31" s="24">
+        <v>1</v>
+      </c>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>9</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -5470,21 +5613,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>10</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="24"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>5</v>
+      </c>
+      <c r="N32" s="29">
+        <v>150</v>
+      </c>
+      <c r="O32" s="24">
+        <v>0</v>
+      </c>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -5613,18 +5772,34 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="45">
+        <v>150</v>
+      </c>
+      <c r="G36" s="45">
+        <v>2</v>
+      </c>
+      <c r="H36" s="45">
+        <v>2</v>
+      </c>
+      <c r="I36" s="45">
+        <v>4</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="45">
+        <v>5</v>
+      </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
       <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="O36" s="45">
+        <v>5</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>20</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -5753,18 +5928,34 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="F42" s="45">
+        <v>150</v>
+      </c>
+      <c r="G42" s="45">
+        <v>2</v>
+      </c>
+      <c r="H42" s="45">
+        <v>2</v>
+      </c>
+      <c r="I42" s="45">
+        <v>4</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="45">
+        <v>5</v>
+      </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="O42" s="45">
+        <v>5</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>20</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -6173,11 +6364,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -6189,7 +6384,9 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
       <c r="V8" s="16"/>
     </row>
@@ -6340,11 +6537,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -6356,7 +6557,9 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
       <c r="V15" s="25"/>
     </row>
@@ -6365,11 +6568,15 @@
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -6381,7 +6588,9 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
       <c r="V16" s="30"/>
     </row>
@@ -6761,21 +6970,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>34</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>15</v>
+      </c>
+      <c r="N24" s="15">
+        <v>440</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -6926,21 +7151,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="24">
+        <v>1</v>
+      </c>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>29</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>13</v>
+      </c>
+      <c r="N31" s="24">
+        <v>99</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>14</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -6951,21 +7192,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="29">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>5</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>2</v>
+      </c>
+      <c r="N32" s="29">
+        <v>341</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>1</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -7094,18 +7351,38 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="F36" s="45">
+        <v>348</v>
+      </c>
+      <c r="G36" s="45">
+        <v>1</v>
+      </c>
+      <c r="H36" s="45">
+        <v>5</v>
+      </c>
+      <c r="I36" s="45">
+        <v>1</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>11</v>
+      </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>1</v>
+      </c>
+      <c r="O36" s="45">
+        <v>6</v>
+      </c>
+      <c r="P36" s="45">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>21</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -7234,18 +7511,38 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="F42" s="45">
+        <v>348</v>
+      </c>
+      <c r="G42" s="45">
+        <v>1</v>
+      </c>
+      <c r="H42" s="45">
+        <v>5</v>
+      </c>
+      <c r="I42" s="45">
+        <v>1</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>11</v>
+      </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>1</v>
+      </c>
+      <c r="O42" s="45">
+        <v>6</v>
+      </c>
+      <c r="P42" s="45">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>21</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -7299,7 +7596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41387BA7-A063-471A-B753-C85C3443A148}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7654,11 +7951,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -7670,9 +7971,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -7821,11 +8126,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -7837,20 +8146,28 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>103</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -7862,9 +8179,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -8242,21 +8563,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>129</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15">
+        <v>672</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -8407,21 +8744,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>2</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>1</v>
+      </c>
+      <c r="M31" s="24">
+        <v>5</v>
+      </c>
+      <c r="N31" s="24">
+        <v>136</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>10</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -8432,21 +8785,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>129</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>15</v>
+      </c>
+      <c r="N32" s="29">
+        <v>536</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>5</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -8575,18 +8944,38 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="F36" s="45">
+        <v>327</v>
+      </c>
+      <c r="G36" s="45">
+        <v>1</v>
+      </c>
+      <c r="H36" s="45">
+        <v>3</v>
+      </c>
+      <c r="I36" s="45">
+        <v>9</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>7</v>
+      </c>
+      <c r="L36" s="45">
+        <v>2</v>
+      </c>
       <c r="M36" s="45"/>
       <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="O36" s="45">
+        <v>3</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>2</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -8715,18 +9104,38 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="F42" s="45">
+        <v>327</v>
+      </c>
+      <c r="G42" s="45">
+        <v>1</v>
+      </c>
+      <c r="H42" s="45">
+        <v>3</v>
+      </c>
+      <c r="I42" s="45">
+        <v>9</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>7</v>
+      </c>
+      <c r="L42" s="45">
+        <v>2</v>
+      </c>
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="O42" s="45">
+        <v>3</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>2</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -33952,7 +34361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD312018-AEFA-43EE-A4EC-98D8F1F0E5A4}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -40591,12 +41000,22 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -40608,9 +41027,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -40758,12 +41181,22 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -40775,20 +41208,34 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28">
+        <v>2</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>85</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -40800,9 +41247,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -41180,21 +41631,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>20</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="15">
+        <v>10</v>
+      </c>
+      <c r="N24" s="15">
+        <v>265</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -41345,21 +41812,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="24">
+        <v>0</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="24">
+        <v>7</v>
+      </c>
+      <c r="N31" s="24">
+        <v>4</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>9</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -41370,21 +41853,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="E32" s="28">
+        <v>1</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>20</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>3</v>
+      </c>
+      <c r="N32" s="29">
+        <v>261</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>6</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -41510,21 +42009,47 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="E36" s="45">
+        <v>1</v>
+      </c>
+      <c r="F36" s="45">
+        <v>281</v>
+      </c>
+      <c r="G36" s="45">
+        <v>8</v>
+      </c>
+      <c r="H36" s="45">
+        <v>3</v>
+      </c>
+      <c r="I36" s="45">
+        <v>2</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>12</v>
+      </c>
+      <c r="L36" s="45">
+        <v>2</v>
+      </c>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>5</v>
+      </c>
+      <c r="O36" s="45">
+        <v>4</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>20</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -41650,21 +42175,47 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
       <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="E42" s="45">
+        <v>1</v>
+      </c>
+      <c r="F42" s="45">
+        <v>281</v>
+      </c>
+      <c r="G42" s="45">
+        <v>8</v>
+      </c>
+      <c r="H42" s="45">
+        <v>3</v>
+      </c>
+      <c r="I42" s="45">
+        <v>2</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>12</v>
+      </c>
+      <c r="L42" s="45">
+        <v>2</v>
+      </c>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>5</v>
+      </c>
+      <c r="O42" s="45">
+        <v>4</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>20</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -42073,11 +42624,19 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -42089,9 +42648,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -42240,11 +42803,19 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -42256,20 +42827,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
+      <c r="E16" s="28">
+        <v>3</v>
+      </c>
+      <c r="F16" s="28">
+        <v>2</v>
+      </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>88</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -42281,9 +42864,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -42661,21 +43248,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>15</v>
+      </c>
+      <c r="N24" s="15">
+        <v>286</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -42826,21 +43429,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="24">
+        <v>1</v>
+      </c>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>34</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>8</v>
+      </c>
+      <c r="N31" s="24">
+        <v>56</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>15</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -42851,21 +43470,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="29">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>7</v>
+      </c>
+      <c r="N32" s="29">
+        <v>230</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -42994,18 +43629,40 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="45">
+        <v>323</v>
+      </c>
+      <c r="G36" s="45">
+        <v>5</v>
+      </c>
+      <c r="H36" s="45">
+        <v>6</v>
+      </c>
+      <c r="I36" s="45">
+        <v>1</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="K36" s="45">
+        <v>2</v>
+      </c>
+      <c r="L36" s="45">
+        <v>1</v>
+      </c>
+      <c r="M36" s="45">
+        <v>1</v>
+      </c>
+      <c r="N36" s="45">
+        <v>5</v>
+      </c>
+      <c r="O36" s="45">
+        <v>2</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>20</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -43134,18 +43791,40 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="F42" s="45">
+        <v>323</v>
+      </c>
+      <c r="G42" s="45">
+        <v>5</v>
+      </c>
+      <c r="H42" s="45">
+        <v>6</v>
+      </c>
+      <c r="I42" s="45">
+        <v>1</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="K42" s="45">
+        <v>2</v>
+      </c>
+      <c r="L42" s="45">
+        <v>1</v>
+      </c>
+      <c r="M42" s="45">
+        <v>1</v>
+      </c>
+      <c r="N42" s="45">
+        <v>5</v>
+      </c>
+      <c r="O42" s="45">
+        <v>2</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>20</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -43554,11 +44233,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -43570,9 +44253,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -43721,11 +44408,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -43737,20 +44428,28 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>0</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -43762,9 +44461,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>2</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -44142,21 +44845,35 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>66</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15">
+        <v>594</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -44307,21 +45024,35 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>53</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>1</v>
+      </c>
+      <c r="M31" s="24">
+        <v>3</v>
+      </c>
+      <c r="N31" s="24">
+        <v>400</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>13</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -44332,21 +45063,35 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>2</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>13</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>17</v>
+      </c>
+      <c r="N32" s="29">
+        <v>194</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>2</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -44472,21 +45217,43 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="F36" s="45">
+        <v>322</v>
+      </c>
+      <c r="G36" s="45">
+        <v>10</v>
+      </c>
+      <c r="H36" s="45">
+        <v>3</v>
+      </c>
+      <c r="I36" s="45">
+        <v>13</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>1</v>
+      </c>
+      <c r="L36" s="45">
+        <v>5</v>
+      </c>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="N36" s="45">
+        <v>3</v>
+      </c>
+      <c r="O36" s="45">
+        <v>5</v>
+      </c>
       <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="Q36" s="46">
+        <v>5</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -44612,21 +45379,43 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="F42" s="45">
+        <v>322</v>
+      </c>
+      <c r="G42" s="45">
+        <v>10</v>
+      </c>
+      <c r="H42" s="45">
+        <v>3</v>
+      </c>
+      <c r="I42" s="45">
+        <v>13</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>1</v>
+      </c>
+      <c r="L42" s="45">
+        <v>5</v>
+      </c>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="N42" s="45">
+        <v>3</v>
+      </c>
+      <c r="O42" s="45">
+        <v>5</v>
+      </c>
       <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="Q42" s="46">
+        <v>5</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>

--- a/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F439BE-36CD-4A2B-9D07-51B2D9545886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E5C57-F7C4-4FB6-A999-C5F3A35BD521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="16" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | DECEMBER" sheetId="902" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="12-03 R2" sheetId="1115" r:id="rId12"/>
     <sheet name="12-03 R3" sheetId="1116" r:id="rId13"/>
     <sheet name="(4)" sheetId="1117" r:id="rId14"/>
-    <sheet name="12-04 R1" sheetId="1118" r:id="rId15"/>
+    <sheet name="12-04 R1 No Trip" sheetId="1118" r:id="rId15"/>
     <sheet name="12-04 R2" sheetId="1119" r:id="rId16"/>
     <sheet name="12-04 R3" sheetId="1120" r:id="rId17"/>
     <sheet name="(5)" sheetId="1121" r:id="rId18"/>
@@ -63,7 +63,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'12-03 R1'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'12-03 R2'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'12-03 R3'!$A$1:$V$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'12-04 R1'!$A$1:$V$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'12-04 R1 No Trip'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'12-04 R2'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'12-04 R3'!$A$1:$V$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'12-05 R1'!$A$1:$V$44</definedName>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="113">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -410,6 +410,27 @@
   </si>
   <si>
     <t>26/10b</t>
+  </si>
+  <si>
+    <t>11/12B</t>
+  </si>
+  <si>
+    <t>6/21B</t>
+  </si>
+  <si>
+    <t>4/15B</t>
+  </si>
+  <si>
+    <t>14/5B</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>9/18B</t>
+  </si>
+  <si>
+    <t>27/18B</t>
   </si>
 </sst>
 </file>
@@ -7596,7 +7617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41387BA7-A063-471A-B753-C85C3443A148}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10670,7 +10691,7 @@
   <dimension ref="B1:AA43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12504,12 +12525,22 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>8</v>
+      </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -12521,9 +12552,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -12671,12 +12706,22 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -12688,20 +12733,34 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <v>8</v>
+      </c>
       <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="29">
+        <v>2</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -12713,9 +12772,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -13093,21 +13156,43 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="J24" s="15">
+        <v>42</v>
+      </c>
+      <c r="K24" s="15">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>15</v>
+      </c>
+      <c r="N24" s="15">
+        <v>315</v>
+      </c>
+      <c r="O24" s="15">
+        <v>6</v>
+      </c>
+      <c r="P24" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -13258,21 +13343,43 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="J31" s="24">
+        <v>29</v>
+      </c>
+      <c r="K31" s="24">
+        <v>0</v>
+      </c>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>11</v>
+      </c>
+      <c r="N31" s="24">
+        <v>108</v>
+      </c>
+      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="P31" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -13283,21 +13390,43 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="J32" s="29">
+        <v>13</v>
+      </c>
+      <c r="K32" s="29">
+        <v>1</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>4</v>
+      </c>
+      <c r="N32" s="29">
+        <v>207</v>
+      </c>
+      <c r="O32" s="24">
+        <v>6</v>
+      </c>
+      <c r="P32" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="29" t="s">
+        <v>110</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -13425,19 +13554,45 @@
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="E36" s="45">
+        <v>2</v>
+      </c>
+      <c r="F36" s="45">
+        <v>105</v>
+      </c>
+      <c r="G36" s="45">
+        <v>1</v>
+      </c>
+      <c r="H36" s="45">
+        <v>4</v>
+      </c>
+      <c r="I36" s="45">
+        <v>5</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>5</v>
+      </c>
+      <c r="L36" s="45">
+        <v>1</v>
+      </c>
+      <c r="M36" s="45">
+        <v>2</v>
+      </c>
+      <c r="N36" s="45">
+        <v>13</v>
+      </c>
+      <c r="O36" s="45">
+        <v>3</v>
+      </c>
+      <c r="P36" s="45">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>22</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -13565,19 +13720,45 @@
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="E42" s="45">
+        <v>2</v>
+      </c>
+      <c r="F42" s="45">
+        <v>105</v>
+      </c>
+      <c r="G42" s="45">
+        <v>1</v>
+      </c>
+      <c r="H42" s="45">
+        <v>4</v>
+      </c>
+      <c r="I42" s="45">
+        <v>5</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>5</v>
+      </c>
+      <c r="L42" s="45">
+        <v>1</v>
+      </c>
+      <c r="M42" s="45">
+        <v>2</v>
+      </c>
+      <c r="N42" s="45">
+        <v>13</v>
+      </c>
+      <c r="O42" s="45">
+        <v>3</v>
+      </c>
+      <c r="P42" s="45">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>22</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -13631,7 +13812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34783A43-8750-4D69-8CBD-193CC272AD7C}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -13986,11 +14167,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -14002,9 +14187,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -14153,11 +14342,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -14169,20 +14362,28 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29">
+        <v>18</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -14194,9 +14395,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -14575,22 +14780,40 @@
         <v>23</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>70</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15">
+        <v>618</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+      <c r="S24" s="15">
+        <v>1</v>
+      </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="16"/>
@@ -14740,22 +14963,40 @@
         <v>25</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>0</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="L31" s="24">
+        <v>1</v>
+      </c>
+      <c r="M31" s="24">
+        <v>20</v>
+      </c>
+      <c r="N31" s="24">
+        <v>189</v>
+      </c>
+      <c r="O31" s="24">
+        <v>0</v>
+      </c>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>10</v>
+      </c>
       <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
+      <c r="S31" s="24">
+        <v>0</v>
+      </c>
       <c r="T31" s="24"/>
       <c r="U31" s="64"/>
       <c r="V31" s="25"/>
@@ -14765,22 +15006,40 @@
         <v>26</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="28">
+        <v>1</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>70</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="24"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>0</v>
+      </c>
+      <c r="N32" s="29">
+        <v>429</v>
+      </c>
+      <c r="O32" s="24">
+        <v>1</v>
+      </c>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
+      <c r="S32" s="29">
+        <v>1</v>
+      </c>
       <c r="T32" s="29"/>
       <c r="U32" s="66"/>
       <c r="V32" s="30"/>
@@ -14904,20 +15163,34 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="F36" s="45">
+        <v>444</v>
+      </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
+      <c r="H36" s="45">
+        <v>6</v>
+      </c>
+      <c r="I36" s="45">
+        <v>3</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
       <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="L36" s="45">
+        <v>4</v>
+      </c>
       <c r="M36" s="45"/>
       <c r="N36" s="45"/>
       <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
+      <c r="P36" s="45">
+        <v>11</v>
+      </c>
       <c r="Q36" s="46"/>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
@@ -15044,20 +15317,34 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
+      <c r="F42" s="45">
+        <v>444</v>
+      </c>
       <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="H42" s="45">
+        <v>6</v>
+      </c>
+      <c r="I42" s="45">
+        <v>3</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
       <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="L42" s="45">
+        <v>4</v>
+      </c>
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
       <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
+      <c r="P42" s="45">
+        <v>11</v>
+      </c>
       <c r="Q42" s="46"/>
       <c r="R42" s="71" t="s">
         <v>54</v>

--- a/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
+++ b/GBDS DECEMBER FILES 2025/CSR MONTH OF DECEMBER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS DECEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E5C57-F7C4-4FB6-A999-C5F3A35BD521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E15B1E8-7A26-433C-835D-95CB9C5AA6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="16" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="20" xr2:uid="{67C3A74A-A57E-4AB5-8CD3-31B592A14032}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR | DECEMBER" sheetId="902" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="123">
   <si>
     <t>CHECKER STOCK REPORT</t>
   </si>
@@ -431,6 +431,36 @@
   </si>
   <si>
     <t>27/18B</t>
+  </si>
+  <si>
+    <t>22/6B</t>
+  </si>
+  <si>
+    <t>2/22B</t>
+  </si>
+  <si>
+    <t>25/4B</t>
+  </si>
+  <si>
+    <t>52/12B</t>
+  </si>
+  <si>
+    <t>11/21B</t>
+  </si>
+  <si>
+    <t>6/5B</t>
+  </si>
+  <si>
+    <t>5/16B</t>
+  </si>
+  <si>
+    <t>3/5B</t>
+  </si>
+  <si>
+    <t>15/18B</t>
+  </si>
+  <si>
+    <t>21/18B</t>
   </si>
 </sst>
 </file>
@@ -13812,7 +13842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34783A43-8750-4D69-8CBD-193CC272AD7C}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -17233,12 +17263,18 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -17250,9 +17286,15 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
+      <c r="U8" s="62">
+        <v>1</v>
+      </c>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -17400,12 +17442,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -17417,20 +17465,32 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
+      <c r="U15" s="64">
+        <v>1</v>
+      </c>
+      <c r="V15" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67" t="s">
+        <v>113</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -17442,9 +17502,15 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
+      <c r="U16" s="65">
+        <v>0</v>
+      </c>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -17822,21 +17888,37 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>82</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="15">
+        <v>5</v>
+      </c>
+      <c r="N24" s="15">
+        <v>541</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>14</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -17987,21 +18069,37 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>1</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>31</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
+      <c r="L31" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="24">
+        <v>2</v>
+      </c>
+      <c r="N31" s="24">
+        <v>19</v>
+      </c>
+      <c r="O31" s="24">
+        <v>1</v>
+      </c>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>14</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -18012,21 +18110,37 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>51</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="24"/>
+      <c r="L32" s="29">
+        <v>50</v>
+      </c>
+      <c r="M32" s="29">
+        <v>3</v>
+      </c>
+      <c r="N32" s="29">
+        <v>522</v>
+      </c>
+      <c r="O32" s="24">
+        <v>0</v>
+      </c>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -18152,21 +18266,39 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="49">
+        <v>10</v>
+      </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="E36" s="45">
+        <v>12</v>
+      </c>
+      <c r="F36" s="45">
+        <v>838</v>
+      </c>
       <c r="G36" s="45"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="I36" s="45">
+        <v>3</v>
+      </c>
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="L36" s="45">
+        <v>41</v>
+      </c>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>9</v>
+      </c>
+      <c r="O36" s="45">
+        <v>9</v>
+      </c>
+      <c r="P36" s="45">
+        <v>48</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>14</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -18292,21 +18424,39 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="49">
+        <v>10</v>
+      </c>
       <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
+      <c r="E42" s="45">
+        <v>12</v>
+      </c>
+      <c r="F42" s="45">
+        <v>838</v>
+      </c>
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="I42" s="45">
+        <v>3</v>
+      </c>
       <c r="J42" s="45"/>
       <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="L42" s="45">
+        <v>41</v>
+      </c>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>9</v>
+      </c>
+      <c r="O42" s="45">
+        <v>9</v>
+      </c>
+      <c r="P42" s="45">
+        <v>48</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>14</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -20194,12 +20344,18 @@
     </row>
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -20211,9 +20367,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -20361,12 +20521,18 @@
       <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -20378,20 +20544,30 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>2</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="60">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29" t="s">
+        <v>119</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -20403,9 +20579,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>0</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -20783,21 +20963,35 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>54</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>15</v>
+      </c>
+      <c r="N24" s="15">
+        <v>216</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -20948,21 +21142,35 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>46</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>2</v>
+      </c>
+      <c r="M31" s="24">
+        <v>13</v>
+      </c>
+      <c r="N31" s="24">
+        <v>30</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>11</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -20973,21 +21181,35 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>0</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>0</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>8</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>2</v>
+      </c>
+      <c r="N32" s="29">
+        <v>186</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29" t="s">
+        <v>120</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -21116,18 +21338,34 @@
       <c r="C36" s="49"/>
       <c r="D36" s="44"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="45">
+        <v>202</v>
+      </c>
+      <c r="G36" s="45">
+        <v>10</v>
+      </c>
+      <c r="H36" s="45">
+        <v>3</v>
+      </c>
+      <c r="I36" s="45">
+        <v>2</v>
+      </c>
       <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="45">
+        <v>7</v>
+      </c>
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
       <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="O36" s="45">
+        <v>4</v>
+      </c>
+      <c r="P36" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>17</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -21256,18 +21494,34 @@
       <c r="C42" s="49"/>
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="F42" s="45">
+        <v>202</v>
+      </c>
+      <c r="G42" s="45">
+        <v>10</v>
+      </c>
+      <c r="H42" s="45">
+        <v>3</v>
+      </c>
+      <c r="I42" s="45">
+        <v>2</v>
+      </c>
       <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="45">
+        <v>7</v>
+      </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
       <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="O42" s="45">
+        <v>4</v>
+      </c>
+      <c r="P42" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>17</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
@@ -21321,7 +21575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0479C14-E0E5-472A-8A13-AD4B78709EDB}">
   <dimension ref="B1:AA43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -21676,11 +21930,15 @@
     <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -21692,9 +21950,13 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="T8" s="15">
+        <v>2</v>
+      </c>
       <c r="U8" s="62"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
@@ -21843,11 +22105,15 @@
         <v>25</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -21859,20 +22125,28 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24">
+        <v>1</v>
+      </c>
       <c r="U15" s="64"/>
-      <c r="V15" s="25"/>
+      <c r="V15" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <v>1</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="H16" s="29">
+        <v>6</v>
+      </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="59"/>
@@ -21884,9 +22158,13 @@
       <c r="Q16" s="29"/>
       <c r="R16" s="29"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="59"/>
+      <c r="T16" s="59">
+        <v>1</v>
+      </c>
       <c r="U16" s="65"/>
-      <c r="V16" s="30"/>
+      <c r="V16" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:22" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31"/>
@@ -22264,21 +22542,35 @@
       <c r="B24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="15">
+        <v>3</v>
+      </c>
       <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="15">
+        <v>40</v>
+      </c>
       <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
+        <v>20</v>
+      </c>
+      <c r="N24" s="15">
+        <v>405</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="Q24" s="15">
+        <v>10</v>
+      </c>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
@@ -22429,21 +22721,35 @@
       <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="24">
+        <v>23</v>
+      </c>
       <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="L31" s="24">
+        <v>1</v>
+      </c>
+      <c r="M31" s="24">
+        <v>0</v>
+      </c>
+      <c r="N31" s="24">
+        <v>230</v>
+      </c>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>7</v>
+      </c>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
@@ -22454,21 +22760,35 @@
       <c r="B32" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="27">
+        <v>1</v>
+      </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="29">
+        <v>3</v>
+      </c>
       <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="29">
+        <v>17</v>
+      </c>
       <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>20</v>
+      </c>
+      <c r="N32" s="29">
+        <v>175</v>
+      </c>
       <c r="O32" s="24"/>
       <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="29">
+        <v>3</v>
+      </c>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
@@ -22594,21 +22914,49 @@
       <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
+      <c r="C36" s="49">
+        <v>2</v>
+      </c>
+      <c r="D36" s="44">
+        <v>1</v>
+      </c>
+      <c r="E36" s="45">
+        <v>12</v>
+      </c>
+      <c r="F36" s="45">
+        <v>194</v>
+      </c>
+      <c r="G36" s="45">
+        <v>3</v>
+      </c>
+      <c r="H36" s="45">
+        <v>5</v>
+      </c>
+      <c r="I36" s="45">
+        <v>8</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1</v>
+      </c>
+      <c r="K36" s="45">
+        <v>10</v>
+      </c>
+      <c r="L36" s="45">
+        <v>3</v>
+      </c>
       <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="N36" s="45">
+        <v>6</v>
+      </c>
+      <c r="O36" s="45">
+        <v>8</v>
+      </c>
+      <c r="P36" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>12</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -22734,21 +23082,49 @@
       <c r="B42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
+      <c r="C42" s="49">
+        <v>2</v>
+      </c>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+      <c r="E42" s="45">
+        <v>12</v>
+      </c>
+      <c r="F42" s="45">
+        <v>194</v>
+      </c>
+      <c r="G42" s="45">
+        <v>3</v>
+      </c>
+      <c r="H42" s="45">
+        <v>5</v>
+      </c>
+      <c r="I42" s="45">
+        <v>8</v>
+      </c>
+      <c r="J42" s="45">
+        <v>1</v>
+      </c>
+      <c r="K42" s="45">
+        <v>10</v>
+      </c>
+      <c r="L42" s="45">
+        <v>3</v>
+      </c>
       <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="46"/>
+      <c r="N42" s="45">
+        <v>6</v>
+      </c>
+      <c r="O42" s="45">
+        <v>8</v>
+      </c>
+      <c r="P42" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="46">
+        <v>12</v>
+      </c>
       <c r="R42" s="71" t="s">
         <v>54</v>
       </c>
